--- a/Excel/镇魂街/skill_old.技能.xlsx
+++ b/Excel/镇魂街/skill_old.技能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4EEB31-E4CE-4714-8DA0-7FF1A6B1484B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A79DFDE-9BBC-4F6B-B553-F5086FEC0E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4792" uniqueCount="1287">
   <si>
     <t>sheet名</t>
   </si>
@@ -5669,11 +5669,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CL100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="CF64" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="CF61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CK69" sqref="CK69"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28507,11 +28507,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="K97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="N92" sqref="N92:O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33887,8 +33887,12 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
+      <c r="N103" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="O103" s="3">
+        <v>1</v>
+      </c>
       <c r="P103" s="3">
         <v>3</v>
       </c>
@@ -37846,7 +37850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A217" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/skill_old.技能.xlsx
+++ b/Excel/镇魂街/skill_old.技能.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A79DFDE-9BBC-4F6B-B553-F5086FEC0E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="DetailType" sheetId="36" r:id="rId9"/>
     <sheet name="Target4" sheetId="37" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4792" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4792" uniqueCount="1289">
   <si>
     <t>sheet名</t>
   </si>
@@ -4594,11 +4593,19 @@
 冷却1回合</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>砍刀鬼兵的普通攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重锤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5058,20 +5065,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="5"/>
+    <cellStyle name="Normal" xfId="8"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="超链接 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="文本" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="纵向标题" xfId="6" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2" xfId="9"/>
+    <cellStyle name="超链接 2" xfId="10"/>
+    <cellStyle name="大标题" xfId="7"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="11"/>
+    <cellStyle name="无效" xfId="12"/>
+    <cellStyle name="因变Grid" xfId="4"/>
+    <cellStyle name="英文标题" xfId="3"/>
+    <cellStyle name="中文标题" xfId="13"/>
+    <cellStyle name="纵向标题" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5343,7 +5350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5583,7 +5590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,14 +5673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="CF61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23138,7 +23145,7 @@
         <v>1801001</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1087</v>
+        <v>1288</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>335</v>
@@ -28504,21 +28511,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="K97" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N92" sqref="N92:O92"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
     <col min="4" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
@@ -31266,7 +31273,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
     </row>
-    <row r="54" spans="1:23" ht="66" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>130300109</v>
       </c>
@@ -31291,7 +31298,7 @@
       <c r="H54" s="3">
         <v>1</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="3">
         <v>2.8</v>
       </c>
       <c r="J54" s="3" t="str">
@@ -31372,7 +31379,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
     </row>
-    <row r="56" spans="1:23" ht="66" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>130300209</v>
       </c>
@@ -31397,7 +31404,7 @@
       <c r="H56" s="3">
         <v>1</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="3">
         <v>0.1</v>
       </c>
       <c r="J56" s="3" t="str">
@@ -31478,7 +31485,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
     </row>
-    <row r="58" spans="1:23" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>130300309</v>
       </c>
@@ -31690,7 +31697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>130300409</v>
       </c>
@@ -31715,7 +31722,7 @@
       <c r="H62" s="3">
         <v>1</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="3">
         <v>2.8</v>
       </c>
       <c r="J62" s="3" t="str">
@@ -31890,7 +31897,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
     </row>
-    <row r="66" spans="1:23" ht="33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>130300509</v>
       </c>
@@ -31915,7 +31922,7 @@
       <c r="H66" s="3">
         <v>1</v>
       </c>
-      <c r="I66" s="7"/>
+      <c r="I66" s="3"/>
       <c r="J66" s="3" t="s">
         <v>1085</v>
       </c>
@@ -31991,7 +31998,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
     </row>
-    <row r="68" spans="1:23" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>130300609</v>
       </c>
@@ -32016,7 +32023,7 @@
       <c r="H68" s="3">
         <v>1</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="3">
         <v>1</v>
       </c>
       <c r="J68" s="3" t="str">
@@ -32154,7 +32161,7 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
     </row>
-    <row r="71" spans="1:23" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>130300709</v>
       </c>
@@ -32179,7 +32186,7 @@
       <c r="H71" s="3">
         <v>1</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="3">
         <v>0.15</v>
       </c>
       <c r="J71" s="3" t="str">
@@ -32537,7 +32544,7 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
     </row>
-    <row r="78" spans="1:23" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>130300909</v>
       </c>
@@ -32562,7 +32569,7 @@
       <c r="H78" s="3">
         <v>1</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="3">
         <v>0.3</v>
       </c>
       <c r="J78" s="3" t="str">
@@ -32741,7 +32748,7 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
     </row>
-    <row r="82" spans="1:23" ht="66" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>130301009</v>
       </c>
@@ -32766,7 +32773,7 @@
       <c r="H82" s="3">
         <v>1</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="3">
         <v>0.1</v>
       </c>
       <c r="J82" s="3" t="str">
@@ -33916,7 +33923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="66" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>130301909</v>
       </c>
@@ -33941,7 +33948,7 @@
       <c r="H104" s="3">
         <v>1</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="3">
         <v>2.4</v>
       </c>
       <c r="J104" s="3" t="str">
@@ -33997,7 +34004,7 @@
       <c r="H105" s="3">
         <v>1</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105" s="3">
         <v>4.2</v>
       </c>
       <c r="J105" s="3" t="str">
@@ -34049,7 +34056,7 @@
       <c r="H106" s="3">
         <v>1</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106" s="3">
         <v>2.1</v>
       </c>
       <c r="J106" s="3" t="str">
@@ -34103,7 +34110,7 @@
       <c r="H107" s="3">
         <v>1</v>
       </c>
-      <c r="I107" s="7"/>
+      <c r="I107" s="3"/>
       <c r="J107" s="3" t="s">
         <v>516</v>
       </c>
@@ -34129,7 +34136,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
     </row>
-    <row r="108" spans="1:23" ht="99" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>130302009</v>
       </c>
@@ -34154,7 +34161,7 @@
       <c r="H108" s="3">
         <v>1</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108" s="3">
         <v>2.8</v>
       </c>
       <c r="J108" s="3" t="str">
@@ -34208,7 +34215,7 @@
       <c r="H109" s="3">
         <v>1</v>
       </c>
-      <c r="I109" s="7">
+      <c r="I109" s="3">
         <v>3.3</v>
       </c>
       <c r="J109" s="3" t="str">
@@ -34260,7 +34267,7 @@
       <c r="H110" s="3">
         <v>1</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110" s="3">
         <v>0.35</v>
       </c>
       <c r="J110" s="3" t="str">
@@ -34297,7 +34304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="66" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>130302109</v>
       </c>
@@ -34322,7 +34329,7 @@
       <c r="H111" s="3">
         <v>1</v>
       </c>
-      <c r="I111" s="7"/>
+      <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3" t="s">
@@ -34371,7 +34378,7 @@
       <c r="H112" s="3">
         <v>1</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112" s="3">
         <v>1.5</v>
       </c>
       <c r="J112" s="3" t="str">
@@ -36220,7 +36227,7 @@
         <v>180100101</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>335</v>
+        <v>1287</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3">
@@ -37847,18 +37854,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="146.875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
@@ -39806,7 +39813,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -39824,7 +39831,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -39842,7 +39849,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -39860,7 +39867,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -39878,7 +39885,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -43954,7 +43961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47956,7 +47963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48279,7 +48286,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G4:H39">
+  <sortState ref="G4:H39">
     <sortCondition ref="H4"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -48288,18 +48295,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -48666,7 +48674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49011,11 +49019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/镇魂街/skill_old.技能.xlsx
+++ b/Excel/镇魂街/skill_old.技能.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5A2577-00E2-4CD0-8171-2EA8B058B528}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -27,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">技能效果!$J$1:$J$182</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2871,10 +2870,6 @@
     <t>自己和寄灵人的每次攻击有[130200801#EffectCondition#3]几率额外造成[130200801#Value#3]伤害</t>
   </si>
   <si>
-    <t>偷取敌方[130201301#Value#1]个红色水晶
-冷却1回合</t>
-  </si>
-  <si>
     <t>为己方生命值最低的单位回复攻击[130201401#Value#3]的生命
 冷却1回合</t>
   </si>
@@ -3029,9 +3024,6 @@
     <t>为当前生命百分比最低的单位生成攻击[130301901#Value#3]的护盾，持续到下次行动开始</t>
   </si>
   <si>
-    <t>攻击单体目标造成攻击[130302001#Value#3]伤害，若敌方当前生命值高于最大值的70%，额外增加[130302002#Value#3]的伤害；若本次攻击未能击杀目标，则自身伤害减少[130302003#Value#3]持续1回合</t>
-  </si>
-  <si>
     <t>攻击敌方单体，造成攻击[130302101#Value#3]的伤害，场上所有单位每次召唤守护灵会为烈风螳螂增加一枚印记，每一枚印记增加烈风螳螂[130302102#Value#3]攻击力，该技能无法暴击</t>
   </si>
   <si>
@@ -3065,9 +3057,6 @@
     <t>专属武器效果:每次造成伤害提升自身暴击伤害75%</t>
   </si>
   <si>
-    <t>专属武器效果:如果技能击杀了敌人，则其余所有敌人均承受1次溢出伤害100%的伤害</t>
-  </si>
-  <si>
     <t>专属武器效果:禁锢时每回合50%（+效果命中）概率永久降低目标15%攻击力</t>
   </si>
   <si>
@@ -3084,9 +3073,6 @@
   </si>
   <si>
     <t>专属武器效果:受到伤害时70%概率使敌方减少4枚水晶</t>
-  </si>
-  <si>
-    <t>专属武器效果:当1技能杀死一个敌人时，自动再次释放1次该技能</t>
   </si>
   <si>
     <t>专属武器效果:被召唤出场时立即释放1次本技能</t>
@@ -3783,10 +3769,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>水晶每有一个受到敌方影响（偷取、削减）有[130201001#EffectCondition#3]概率为自身生成1个印记，每1枚印记可代替1个盖文召唤守护灵的水晶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>0#0#0.1#1.5|0#0#0#0.5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3858,10 +3840,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>专属武器效果:若本次攻击击杀了目标，则对另一名生命值比例最低的目标追加一次攻击280%伤害的攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>int:&gt;</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -4132,18 +4110,6 @@
   <si>
     <t>5级:生命恢复量增加15%</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级:偷取水晶数量+1</t>
-  </si>
-  <si>
-    <t>3级:偷取水晶数量+1</t>
-  </si>
-  <si>
-    <t>4级:偷取水晶数量+1</t>
-  </si>
-  <si>
-    <t>5级:偷取水晶数量+1</t>
   </si>
   <si>
     <t>3级:攻击力增加量提高5%</t>
@@ -4328,11 +4294,6 @@
   </si>
   <si>
     <t>对敌方单体目标造成攻击[130101101#Value#3]伤害，并对该单位施加风神印记</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击敌方单体造成攻击[130101201#Value#3]伤害
-[130101202#EffectCondition#3]几率随机偷取对方[130101202#Value#1]个水晶</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -4583,12 +4544,47 @@
   <si>
     <t>101#0#1#0</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击单体目标造成攻击[130302001#Value#3]伤害，若敌方当前生命值高于最大值的70%，额外增加[130302002#Value#3]的伤害；若本次攻击未能击败目标，则自身伤害减少[130302003#Value#3]持续1回合</t>
+  </si>
+  <si>
+    <t>水晶每有一个受到敌方影响（借用、削减）有[130201001#EffectCondition#3]概率为自身生成1个印记，每1枚印记可代替1个盖文召唤守护灵的水晶</t>
+  </si>
+  <si>
+    <t>攻击敌方单体造成攻击[130101201#Value#3]伤害
+[130101202#EffectCondition#3]几率随机借用对方[130101202#Value#1]个水晶</t>
+  </si>
+  <si>
+    <t>借用敌方[130201301#Value#1]个红色水晶
+冷却1回合</t>
+  </si>
+  <si>
+    <t>2级:借用水晶数量+1</t>
+  </si>
+  <si>
+    <t>3级:借用水晶数量+1</t>
+  </si>
+  <si>
+    <t>4级:借用水晶数量+1</t>
+  </si>
+  <si>
+    <t>5级:借用水晶数量+1</t>
+  </si>
+  <si>
+    <t>专属武器效果:当1技能击退一个敌人时，自动再次释放1次该技能</t>
+  </si>
+  <si>
+    <t>专属武器效果:如果技能击退了敌人，则其余所有敌人均承受1次溢出伤害100%的伤害</t>
+  </si>
+  <si>
+    <t>专属武器效果:若本次攻击击退了目标，则对另一名生命值比例最低的目标追加一次攻击280%伤害的攻击</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5048,20 +5044,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="5"/>
+    <cellStyle name="Normal" xfId="8"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="超链接 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="文本" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="纵向标题" xfId="6" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2" xfId="9"/>
+    <cellStyle name="超链接 2" xfId="10"/>
+    <cellStyle name="大标题" xfId="7"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="11"/>
+    <cellStyle name="无效" xfId="12"/>
+    <cellStyle name="因变Grid" xfId="4"/>
+    <cellStyle name="英文标题" xfId="3"/>
+    <cellStyle name="中文标题" xfId="13"/>
+    <cellStyle name="纵向标题" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5333,7 +5329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5491,17 +5487,17 @@
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="b">
@@ -5511,14 +5507,14 @@
     </row>
     <row r="9" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -5529,17 +5525,17 @@
     </row>
     <row r="10" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="b">
@@ -5549,14 +5545,14 @@
     </row>
     <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5573,7 +5569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5590,13 +5586,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>657</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5604,10 +5600,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5615,10 +5611,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5656,7 +5652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5734,13 +5730,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>22</v>
@@ -5749,7 +5745,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>24</v>
@@ -6006,13 +6002,13 @@
         <v>105</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="H2" t="s">
         <v>103</v>
@@ -6278,13 +6274,13 @@
         <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>116</v>
@@ -6293,7 +6289,7 @@
         <v>117</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>118</v>
@@ -6551,7 +6547,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -6801,7 +6797,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -7051,7 +7047,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -7301,7 +7297,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -7551,7 +7547,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -7801,7 +7797,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -8051,7 +8047,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -8301,7 +8297,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -8551,7 +8547,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -8801,7 +8797,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -9047,11 +9043,11 @@
         <v>229</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -9301,7 +9297,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -9547,11 +9543,11 @@
         <v>234</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -9801,7 +9797,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -10047,11 +10043,11 @@
         <v>239</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -10301,7 +10297,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -10547,11 +10543,11 @@
         <v>244</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -10801,7 +10797,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -11047,11 +11043,11 @@
         <v>249</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -11301,7 +11297,7 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -11547,11 +11543,11 @@
         <v>254</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -11801,7 +11797,7 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -12047,11 +12043,11 @@
         <v>259</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -12301,7 +12297,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -12547,11 +12543,11 @@
         <v>264</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -12801,7 +12797,7 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -13023,11 +13019,11 @@
         <v>269</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -13277,7 +13273,7 @@
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -13523,11 +13519,11 @@
         <v>274</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -13777,7 +13773,7 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -14023,11 +14019,11 @@
         <v>278</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
@@ -14273,11 +14269,11 @@
         <v>280</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -14523,11 +14519,11 @@
         <v>282</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -14773,11 +14769,11 @@
         <v>283</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -15023,11 +15019,11 @@
         <v>285</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -15287,7 +15283,7 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -15537,7 +15533,7 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -15761,11 +15757,11 @@
         <v>291</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -16011,11 +16007,11 @@
         <v>293</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -16261,11 +16257,11 @@
         <v>294</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -16521,11 +16517,11 @@
         <v>295</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -16771,11 +16767,11 @@
         <v>593</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -17021,11 +17017,11 @@
         <v>298</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -17271,11 +17267,11 @@
         <v>300</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -17521,11 +17517,11 @@
         <v>302</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -17771,11 +17767,11 @@
         <v>304</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -18021,11 +18017,11 @@
         <v>306</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -18271,11 +18267,11 @@
         <v>308</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
@@ -18521,11 +18517,11 @@
         <v>309</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -18771,11 +18767,11 @@
         <v>310</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -19021,11 +19017,11 @@
         <v>591</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -20426,13 +20422,13 @@
         <v>1304006</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3">
@@ -20658,13 +20654,13 @@
         <v>1304007</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>795</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3">
@@ -20910,13 +20906,13 @@
         <v>1304008</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>796</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3">
@@ -21168,7 +21164,7 @@
         <v>797</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3">
@@ -21414,13 +21410,13 @@
         <v>1304010</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>798</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3">
@@ -21676,13 +21672,13 @@
         <v>1304011</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>328</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3">
@@ -21938,13 +21934,13 @@
         <v>1304012</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3">
@@ -22206,7 +22202,7 @@
         <v>800</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3">
@@ -22418,7 +22414,7 @@
         <v>801</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
@@ -22630,7 +22626,7 @@
         <v>802</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3">
@@ -22876,13 +22872,13 @@
         <v>1304016</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3">
@@ -23128,7 +23124,7 @@
         <v>1801001</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>335</v>
@@ -23362,7 +23358,7 @@
         <v>1801002</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>337</v>
@@ -23594,7 +23590,7 @@
         <v>1801003</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>338</v>
@@ -23828,7 +23824,7 @@
         <v>1801004</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>596</v>
@@ -23966,7 +23962,7 @@
         <v>1802004</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>597</v>
@@ -24104,7 +24100,7 @@
         <v>1801005</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>599</v>
@@ -24242,7 +24238,7 @@
         <v>1802005</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>602</v>
@@ -24384,7 +24380,7 @@
         <v>1803005</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>604</v>
@@ -24522,7 +24518,7 @@
         <v>1801006</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>339</v>
@@ -24756,7 +24752,7 @@
         <v>1801008</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>608</v>
@@ -24894,7 +24890,7 @@
         <v>1802008</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>609</v>
@@ -25032,7 +25028,7 @@
         <v>1801009</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>610</v>
@@ -25170,7 +25166,7 @@
         <v>1802009</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>611</v>
@@ -25308,7 +25304,7 @@
         <v>1801010</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>340</v>
@@ -25542,7 +25538,7 @@
         <v>1801011</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>341</v>
@@ -25776,7 +25772,7 @@
         <v>1801012</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>342</v>
@@ -26010,7 +26006,7 @@
         <v>1802012</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>343</v>
@@ -26244,7 +26240,7 @@
         <v>1803012</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>344</v>
@@ -26481,7 +26477,7 @@
         <v>205</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="3"/>
@@ -26649,7 +26645,7 @@
         <v>208</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="E90" s="31"/>
       <c r="F90" s="3"/>
@@ -26817,7 +26813,7 @@
         <v>234</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="3"/>
@@ -26985,7 +26981,7 @@
         <v>236</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="E92" s="31"/>
       <c r="F92" s="3"/>
@@ -27153,7 +27149,7 @@
         <v>244</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="3"/>
@@ -27321,7 +27317,7 @@
         <v>298</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="E94" s="31"/>
       <c r="F94" s="3"/>
@@ -27489,7 +27485,7 @@
         <v>280</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="3"/>
@@ -27657,7 +27653,7 @@
         <v>789</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="E96" s="31"/>
       <c r="F96" s="3"/>
@@ -27825,7 +27821,7 @@
         <v>790</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="E97" s="31"/>
       <c r="F97" s="3"/>
@@ -27993,7 +27989,7 @@
         <v>254</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="E98" s="31"/>
       <c r="F98" s="3"/>
@@ -28161,7 +28157,7 @@
         <v>217</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E99" s="31"/>
       <c r="F99" s="3"/>
@@ -28329,7 +28325,7 @@
         <v>269</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="E100" s="31"/>
       <c r="F100" s="3"/>
@@ -28494,14 +28490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28601,7 +28597,7 @@
         <v>105</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D2" t="s">
         <v>366</v>
@@ -28810,7 +28806,7 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="3" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -28907,11 +28903,11 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="3" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -29006,7 +29002,7 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="3" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -29207,7 +29203,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="3" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -29254,11 +29250,11 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="3" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -29305,7 +29301,7 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="3" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -29362,7 +29358,7 @@
         <v>0#0#0.02#0.23</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -29468,7 +29464,7 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="3" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -29573,7 +29569,7 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="3" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -29979,7 +29975,7 @@
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="3" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -30128,7 +30124,7 @@
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="3" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -30179,7 +30175,7 @@
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
@@ -30278,7 +30274,7 @@
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="3" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -30329,7 +30325,7 @@
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -30377,7 +30373,7 @@
         <v>416</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -30682,11 +30678,11 @@
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="3" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -30829,7 +30825,7 @@
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="3" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -31134,7 +31130,7 @@
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="3" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -31264,7 +31260,7 @@
         <v>456</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -31290,7 +31286,7 @@
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -31370,7 +31366,7 @@
         <v>458</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -31476,7 +31472,7 @@
         <v>460</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D58" s="3">
         <v>2</v>
@@ -31634,7 +31630,7 @@
         <v>130300402</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1240</v>
+        <v>1229</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3">
@@ -31656,7 +31652,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3" t="s">
-        <v>1241</v>
+        <v>1230</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -31688,7 +31684,7 @@
         <v>464</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -31759,7 +31755,7 @@
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="3" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -31838,7 +31834,7 @@
         <v>130300503</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3">
@@ -31858,7 +31854,7 @@
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -31888,7 +31884,7 @@
         <v>467</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -31907,7 +31903,7 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="3" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -31989,7 +31985,7 @@
         <v>469</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>918</v>
+        <v>1281</v>
       </c>
       <c r="D68" s="3">
         <v>2</v>
@@ -32152,7 +32148,7 @@
         <v>472</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -32178,7 +32174,7 @@
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3" t="s">
@@ -32535,7 +32531,7 @@
         <v>481</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D78" s="3">
         <v>2</v>
@@ -32662,7 +32658,7 @@
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="3" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -32689,7 +32685,7 @@
         <v>130301003</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
@@ -32709,7 +32705,7 @@
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -32739,7 +32735,7 @@
         <v>768</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -32765,7 +32761,7 @@
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -32855,7 +32851,7 @@
         <v>485</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -32965,7 +32961,7 @@
         <v>487</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
       <c r="D86" s="3">
         <v>1</v>
@@ -32986,7 +32982,7 @@
         <v>0.12</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -33117,10 +33113,10 @@
         <v>130301309</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1243</v>
+        <v>1232</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>1242</v>
+        <v>1231</v>
       </c>
       <c r="D89" s="3">
         <v>2</v>
@@ -33178,7 +33174,7 @@
         <v>130301302</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3">
@@ -33306,7 +33302,7 @@
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="M92" s="3"/>
       <c r="N92" s="3" t="s">
@@ -33342,7 +33338,7 @@
         <v>493</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D93" s="3">
         <v>2</v>
@@ -33448,7 +33444,7 @@
         <v>495</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D95" s="3">
         <v>2</v>
@@ -33520,7 +33516,7 @@
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -33548,7 +33544,7 @@
         <v>498</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
@@ -33567,11 +33563,11 @@
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -33653,7 +33649,7 @@
         <v>501</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>925</v>
+        <v>1280</v>
       </c>
       <c r="D99" s="3">
         <v>2</v>
@@ -33803,7 +33799,7 @@
         <v>506</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D102" s="3">
         <v>2</v>
@@ -33878,7 +33874,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="O103" s="3">
         <v>1</v>
@@ -33914,7 +33910,7 @@
         <v>508</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="D104" s="3">
         <v>1</v>
@@ -34127,7 +34123,7 @@
         <v>515</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>1105</v>
+        <v>1282</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
@@ -34295,7 +34291,7 @@
         <v>518</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D111" s="3">
         <v>2</v>
@@ -35138,7 +35134,7 @@
         <v>130400602</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3">
@@ -35235,7 +35231,7 @@
         <v>130400702</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3">
@@ -35255,7 +35251,7 @@
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="3" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -35282,7 +35278,7 @@
         <v>130400801</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3">
@@ -35332,7 +35328,7 @@
         <v>130400802</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3">
@@ -35352,7 +35348,7 @@
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="3" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
@@ -35433,7 +35429,7 @@
         <v>130400902</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3">
@@ -35455,11 +35451,11 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="M134" s="3"/>
       <c r="N134" s="3" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="O134" s="3"/>
       <c r="P134" s="3">
@@ -35486,7 +35482,7 @@
         <v>130401001</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3">
@@ -35536,7 +35532,7 @@
         <v>130401002</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3">
@@ -35590,7 +35586,7 @@
         <v>130401101</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3">
@@ -35640,7 +35636,7 @@
         <v>130401102</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3">
@@ -35669,7 +35665,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="O138" s="3">
         <v>5</v>
@@ -35694,7 +35690,7 @@
         <v>130401201</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3">
@@ -35744,7 +35740,7 @@
         <v>130401202</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3">
@@ -35771,7 +35767,7 @@
       </c>
       <c r="K140" s="3"/>
       <c r="L140" s="3" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
@@ -36100,7 +36096,7 @@
         <v>130401601</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3">
@@ -36154,7 +36150,7 @@
         <v>130401602</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3">
@@ -36181,7 +36177,7 @@
       </c>
       <c r="K148" s="3"/>
       <c r="L148" s="3" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
@@ -36210,7 +36206,7 @@
         <v>180100101</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3">
@@ -36559,11 +36555,11 @@
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="3" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="K156" s="3"/>
       <c r="L156" s="3" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
@@ -37209,7 +37205,7 @@
         <v>200100101</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3">
@@ -37229,7 +37225,7 @@
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="3" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
@@ -37256,7 +37252,7 @@
         <v>200100201</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3">
@@ -37276,7 +37272,7 @@
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="3" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
@@ -37303,7 +37299,7 @@
         <v>200200101</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3">
@@ -37323,7 +37319,7 @@
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="3" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
@@ -37350,7 +37346,7 @@
         <v>200200201</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3">
@@ -37370,7 +37366,7 @@
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="3" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
@@ -37397,7 +37393,7 @@
         <v>200300101</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3">
@@ -37417,7 +37413,7 @@
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="3" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
@@ -37444,7 +37440,7 @@
         <v>200400101</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>199</v>
@@ -37466,7 +37462,7 @@
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
@@ -37495,7 +37491,7 @@
         <v>200500101</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>199</v>
@@ -37517,7 +37513,7 @@
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
@@ -37544,7 +37540,7 @@
         <v>200500201</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3">
@@ -37594,7 +37590,7 @@
         <v>200500202</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3">
@@ -37614,7 +37610,7 @@
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -37641,7 +37637,7 @@
         <v>200500301</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3">
@@ -37661,7 +37657,7 @@
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="3" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -37688,7 +37684,7 @@
         <v>200600101</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>199</v>
@@ -37710,7 +37706,7 @@
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="3" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -37737,7 +37733,7 @@
         <v>200700101</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>199</v>
@@ -37759,7 +37755,7 @@
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="3" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -37786,7 +37782,7 @@
         <v>200800101</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>199</v>
@@ -37808,7 +37804,7 @@
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="3" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
@@ -37837,11 +37833,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -37862,7 +37858,7 @@
         <v>588</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>589</v>
@@ -37879,7 +37875,7 @@
         <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>104</v>
@@ -37890,16 +37886,16 @@
     </row>
     <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>613</v>
@@ -37921,7 +37917,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -37939,7 +37935,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -37957,7 +37953,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -37975,7 +37971,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -37993,7 +37989,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
@@ -38011,7 +38007,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -38029,7 +38025,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -38047,7 +38043,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -38065,7 +38061,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -38083,7 +38079,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.2">
@@ -38101,7 +38097,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -38119,7 +38115,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -38137,7 +38133,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -38155,7 +38151,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -38173,7 +38169,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -38209,7 +38205,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -38227,7 +38223,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -38245,7 +38241,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -38263,7 +38259,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -38281,7 +38277,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -38299,7 +38295,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -38317,7 +38313,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -38335,7 +38331,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -38353,7 +38349,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -38371,7 +38367,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -38389,7 +38385,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -38407,7 +38403,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -38425,7 +38421,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -38443,7 +38439,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -38461,7 +38457,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -38479,7 +38475,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -38497,7 +38493,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -38515,7 +38511,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -38533,7 +38529,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -38551,7 +38547,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -38569,7 +38565,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -38587,7 +38583,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -38605,7 +38601,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -38623,7 +38619,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -38641,7 +38637,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -38659,7 +38655,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -38677,7 +38673,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -38695,7 +38691,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -38713,7 +38709,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -38731,7 +38727,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -38749,7 +38745,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -38767,7 +38763,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -38785,7 +38781,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -38803,7 +38799,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -38821,7 +38817,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -38839,7 +38835,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -38857,7 +38853,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -38875,7 +38871,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -38893,7 +38889,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -38911,7 +38907,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -38929,7 +38925,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -38947,7 +38943,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -38965,7 +38961,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -38983,7 +38979,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39001,7 +38997,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39019,7 +39015,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39037,7 +39033,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39055,7 +39051,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39073,7 +39069,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="49.5" x14ac:dyDescent="0.2">
@@ -39091,7 +39087,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -39109,7 +39105,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -39127,7 +39123,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -39145,7 +39141,7 @@
         <v>4</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -39163,7 +39159,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39181,7 +39177,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -39199,7 +39195,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -39217,7 +39213,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -39235,7 +39231,7 @@
         <v>4</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -39253,7 +39249,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -39289,7 +39285,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -39307,7 +39303,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -39325,7 +39321,7 @@
         <v>4</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -39343,7 +39339,7 @@
         <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39361,7 +39357,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -39379,7 +39375,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -39397,7 +39393,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -39415,7 +39411,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -39433,7 +39429,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -39451,7 +39447,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -39469,7 +39465,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -39487,7 +39483,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -39505,7 +39501,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -39523,7 +39519,7 @@
         <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39541,7 +39537,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -39559,7 +39555,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -39577,7 +39573,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -39595,7 +39591,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -39613,7 +39609,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -39631,7 +39627,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>1087</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -39649,7 +39645,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -39667,7 +39663,7 @@
         <v>3</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -39685,7 +39681,7 @@
         <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -39703,7 +39699,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -39721,7 +39717,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -39739,7 +39735,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -39757,7 +39753,7 @@
         <v>3</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -39775,7 +39771,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -39793,7 +39789,7 @@
         <v>5</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39811,7 +39807,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39829,7 +39825,7 @@
         <v>2</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39847,7 +39843,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39865,7 +39861,7 @@
         <v>4</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39883,7 +39879,7 @@
         <v>5</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -39901,7 +39897,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>1223</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -39919,7 +39915,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -39937,7 +39933,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -39955,7 +39951,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -39973,7 +39969,7 @@
         <v>5</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -39991,7 +39987,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -40009,7 +40005,7 @@
         <v>2</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -40027,7 +40023,7 @@
         <v>3</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -40045,7 +40041,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -40063,7 +40059,7 @@
         <v>5</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -40081,7 +40077,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -40099,7 +40095,7 @@
         <v>2</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -40117,7 +40113,7 @@
         <v>3</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -40135,7 +40131,7 @@
         <v>4</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -40153,7 +40149,7 @@
         <v>5</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -40171,7 +40167,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>855</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -40189,7 +40185,7 @@
         <v>2</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>1174</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -40207,7 +40203,7 @@
         <v>3</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>1175</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -40225,7 +40221,7 @@
         <v>4</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>1176</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -40243,7 +40239,7 @@
         <v>5</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>1177</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -40261,7 +40257,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -40279,7 +40275,7 @@
         <v>2</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -40297,7 +40293,7 @@
         <v>3</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -40315,7 +40311,7 @@
         <v>4</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -40333,7 +40329,7 @@
         <v>5</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -40351,7 +40347,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -40369,7 +40365,7 @@
         <v>2</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -40387,7 +40383,7 @@
         <v>3</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -40405,7 +40401,7 @@
         <v>4</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -40423,7 +40419,7 @@
         <v>5</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -40441,7 +40437,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -40459,7 +40455,7 @@
         <v>2</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -40477,7 +40473,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -40495,7 +40491,7 @@
         <v>4</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -40513,7 +40509,7 @@
         <v>5</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -40531,7 +40527,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -40549,7 +40545,7 @@
         <v>2</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -40567,7 +40563,7 @@
         <v>3</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -40585,7 +40581,7 @@
         <v>4</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -40603,7 +40599,7 @@
         <v>5</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -40621,7 +40617,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -40639,7 +40635,7 @@
         <v>2</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -40657,7 +40653,7 @@
         <v>3</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -40675,7 +40671,7 @@
         <v>4</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -40693,7 +40689,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -40711,7 +40707,7 @@
         <v>1</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -40729,7 +40725,7 @@
         <v>2</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -40747,7 +40743,7 @@
         <v>3</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -40765,7 +40761,7 @@
         <v>4</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -40783,7 +40779,7 @@
         <v>5</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -40801,7 +40797,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -40819,7 +40815,7 @@
         <v>2</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -40837,7 +40833,7 @@
         <v>3</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -40855,7 +40851,7 @@
         <v>4</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -40873,7 +40869,7 @@
         <v>5</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -40891,7 +40887,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -40909,7 +40905,7 @@
         <v>2</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -40927,7 +40923,7 @@
         <v>3</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -40945,7 +40941,7 @@
         <v>4</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -40963,7 +40959,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -40981,7 +40977,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -40999,7 +40995,7 @@
         <v>2</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -41017,7 +41013,7 @@
         <v>3</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -41035,7 +41031,7 @@
         <v>4</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -41053,7 +41049,7 @@
         <v>5</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -41071,7 +41067,7 @@
         <v>1</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -41089,7 +41085,7 @@
         <v>2</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -41107,7 +41103,7 @@
         <v>3</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -41125,7 +41121,7 @@
         <v>4</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -41143,7 +41139,7 @@
         <v>5</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="49.5" x14ac:dyDescent="0.2">
@@ -41161,7 +41157,7 @@
         <v>1</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -41179,7 +41175,7 @@
         <v>2</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -41197,7 +41193,7 @@
         <v>3</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -41215,7 +41211,7 @@
         <v>4</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -41233,7 +41229,7 @@
         <v>5</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -41251,7 +41247,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -41269,7 +41265,7 @@
         <v>2</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -41287,7 +41283,7 @@
         <v>3</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -41305,7 +41301,7 @@
         <v>4</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -41323,7 +41319,7 @@
         <v>5</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -41341,7 +41337,7 @@
         <v>1</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -41359,7 +41355,7 @@
         <v>2</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -41377,7 +41373,7 @@
         <v>3</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -41395,7 +41391,7 @@
         <v>4</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -41413,7 +41409,7 @@
         <v>5</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -41431,7 +41427,7 @@
         <v>1</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -41449,7 +41445,7 @@
         <v>2</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -41467,7 +41463,7 @@
         <v>3</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -41485,7 +41481,7 @@
         <v>4</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -41503,7 +41499,7 @@
         <v>5</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -41521,7 +41517,7 @@
         <v>1</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -41539,7 +41535,7 @@
         <v>2</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -41557,7 +41553,7 @@
         <v>3</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -41575,7 +41571,7 @@
         <v>4</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -41593,7 +41589,7 @@
         <v>5</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -41611,7 +41607,7 @@
         <v>1</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -41629,7 +41625,7 @@
         <v>2</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -41647,7 +41643,7 @@
         <v>3</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -41665,7 +41661,7 @@
         <v>4</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -41683,7 +41679,7 @@
         <v>5</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -41701,7 +41697,7 @@
         <v>1</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -41719,7 +41715,7 @@
         <v>2</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -41737,7 +41733,7 @@
         <v>3</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -41755,7 +41751,7 @@
         <v>4</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -41773,7 +41769,7 @@
         <v>5</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -41791,7 +41787,7 @@
         <v>1</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -41809,7 +41805,7 @@
         <v>2</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -41827,7 +41823,7 @@
         <v>3</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -41845,7 +41841,7 @@
         <v>4</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -41863,7 +41859,7 @@
         <v>5</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -41881,7 +41877,7 @@
         <v>1</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -41899,7 +41895,7 @@
         <v>2</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -41917,7 +41913,7 @@
         <v>3</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -41935,7 +41931,7 @@
         <v>4</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -41953,7 +41949,7 @@
         <v>5</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -41971,7 +41967,7 @@
         <v>1</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -41989,7 +41985,7 @@
         <v>2</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -42007,7 +42003,7 @@
         <v>3</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -42025,7 +42021,7 @@
         <v>4</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -42043,7 +42039,7 @@
         <v>5</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -42061,7 +42057,7 @@
         <v>1</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -42079,7 +42075,7 @@
         <v>2</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -42097,7 +42093,7 @@
         <v>3</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -42115,7 +42111,7 @@
         <v>4</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -42133,7 +42129,7 @@
         <v>5</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -42151,7 +42147,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -42169,7 +42165,7 @@
         <v>2</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -42187,7 +42183,7 @@
         <v>3</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -42205,7 +42201,7 @@
         <v>4</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -42223,7 +42219,7 @@
         <v>5</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -42241,7 +42237,7 @@
         <v>1</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -42259,7 +42255,7 @@
         <v>2</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -42277,7 +42273,7 @@
         <v>3</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -42295,7 +42291,7 @@
         <v>4</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -42313,7 +42309,7 @@
         <v>5</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -42331,7 +42327,7 @@
         <v>1</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>907</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -42349,7 +42345,7 @@
         <v>2</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -42367,7 +42363,7 @@
         <v>3</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -42385,7 +42381,7 @@
         <v>4</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -42403,7 +42399,7 @@
         <v>5</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -42421,7 +42417,7 @@
         <v>1</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -42439,7 +42435,7 @@
         <v>2</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -42457,7 +42453,7 @@
         <v>3</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -42475,7 +42471,7 @@
         <v>4</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -42493,7 +42489,7 @@
         <v>5</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -42511,7 +42507,7 @@
         <v>1</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -42529,7 +42525,7 @@
         <v>2</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -42547,7 +42543,7 @@
         <v>3</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -42565,7 +42561,7 @@
         <v>4</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -42583,7 +42579,7 @@
         <v>5</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="49.5" x14ac:dyDescent="0.2">
@@ -42601,7 +42597,7 @@
         <v>1</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -42619,7 +42615,7 @@
         <v>2</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -42637,7 +42633,7 @@
         <v>3</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -42655,7 +42651,7 @@
         <v>4</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -42673,7 +42669,7 @@
         <v>5</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="49.5" x14ac:dyDescent="0.2">
@@ -42691,7 +42687,7 @@
         <v>1</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -42709,7 +42705,7 @@
         <v>2</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -42727,7 +42723,7 @@
         <v>3</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -42745,7 +42741,7 @@
         <v>4</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -42763,7 +42759,7 @@
         <v>5</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="49.5" x14ac:dyDescent="0.2">
@@ -42781,7 +42777,7 @@
         <v>1</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -42799,7 +42795,7 @@
         <v>2</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -42817,7 +42813,7 @@
         <v>3</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -42835,7 +42831,7 @@
         <v>4</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -42853,7 +42849,7 @@
         <v>5</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="49.5" x14ac:dyDescent="0.2">
@@ -42871,7 +42867,7 @@
         <v>1</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -42889,7 +42885,7 @@
         <v>2</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -42907,7 +42903,7 @@
         <v>3</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -42925,7 +42921,7 @@
         <v>4</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -42943,7 +42939,7 @@
         <v>5</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -42961,7 +42957,7 @@
         <v>1</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -42979,7 +42975,7 @@
         <v>2</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -42997,7 +42993,7 @@
         <v>3</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -43015,7 +43011,7 @@
         <v>4</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -43033,7 +43029,7 @@
         <v>5</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -43051,7 +43047,7 @@
         <v>1</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -43069,7 +43065,7 @@
         <v>2</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -43087,7 +43083,7 @@
         <v>3</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -43105,7 +43101,7 @@
         <v>4</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -43123,7 +43119,7 @@
         <v>5</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -43141,7 +43137,7 @@
         <v>1</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -43159,7 +43155,7 @@
         <v>2</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -43177,7 +43173,7 @@
         <v>3</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -43195,7 +43191,7 @@
         <v>4</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -43213,7 +43209,7 @@
         <v>5</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="49.5" x14ac:dyDescent="0.2">
@@ -43231,7 +43227,7 @@
         <v>1</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -43249,7 +43245,7 @@
         <v>2</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -43267,7 +43263,7 @@
         <v>3</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -43285,7 +43281,7 @@
         <v>4</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -43303,7 +43299,7 @@
         <v>5</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -43321,7 +43317,7 @@
         <v>1</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -43339,7 +43335,7 @@
         <v>2</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -43357,7 +43353,7 @@
         <v>3</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -43375,7 +43371,7 @@
         <v>4</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -43393,7 +43389,7 @@
         <v>5</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -43411,7 +43407,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -43429,7 +43425,7 @@
         <v>2</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -43447,7 +43443,7 @@
         <v>3</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -43465,7 +43461,7 @@
         <v>4</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -43483,7 +43479,7 @@
         <v>5</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -43501,7 +43497,7 @@
         <v>1</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -43519,7 +43515,7 @@
         <v>2</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -43537,7 +43533,7 @@
         <v>3</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -43555,7 +43551,7 @@
         <v>4</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -43573,7 +43569,7 @@
         <v>5</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -43591,7 +43587,7 @@
         <v>1</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -43609,7 +43605,7 @@
         <v>2</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -43627,7 +43623,7 @@
         <v>3</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -43645,7 +43641,7 @@
         <v>4</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -43663,7 +43659,7 @@
         <v>5</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -43681,7 +43677,7 @@
         <v>1</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -43699,7 +43695,7 @@
         <v>2</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -43717,7 +43713,7 @@
         <v>3</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -43735,7 +43731,7 @@
         <v>4</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -43753,7 +43749,7 @@
         <v>5</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -43771,7 +43767,7 @@
         <v>1</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -43789,7 +43785,7 @@
         <v>2</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -43807,7 +43803,7 @@
         <v>3</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -43825,7 +43821,7 @@
         <v>4</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -43843,7 +43839,7 @@
         <v>5</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -43861,7 +43857,7 @@
         <v>1</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -43879,7 +43875,7 @@
         <v>2</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -43897,7 +43893,7 @@
         <v>3</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -43915,7 +43911,7 @@
         <v>4</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -43933,7 +43929,7 @@
         <v>5</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
@@ -43944,7 +43940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43965,89 +43961,89 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>965</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>995</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>996</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>998</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>999</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>1003</v>
-      </c>
       <c r="I2" s="30" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>968</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -47091,7 +47087,7 @@
         <v>5</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="F105" s="3">
         <v>20</v>
@@ -47946,7 +47942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47964,53 +47960,53 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -48269,7 +48265,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G4:H39">
+  <sortState ref="G4:H39">
     <sortCondition ref="H4"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -48278,7 +48274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48303,7 +48299,7 @@
         <v>546</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -48331,7 +48327,7 @@
         <v>548</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -48345,7 +48341,7 @@
         <v>778</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -48656,7 +48652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48957,13 +48953,13 @@
         <v>119</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C21" s="26">
         <v>0</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -48971,7 +48967,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C22" s="26">
         <v>0</v>
@@ -48985,7 +48981,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C23" s="29">
         <v>0</v>
@@ -49001,7 +48997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49142,10 +49138,10 @@
         <v>1011</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -49153,10 +49149,10 @@
         <v>1012</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -49246,10 +49242,10 @@
         <v>3005</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -49609,10 +49605,10 @@
         <v>4035</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -49620,10 +49616,10 @@
         <v>4036</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -49631,10 +49627,10 @@
         <v>4037</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
